--- a/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-3/06_Log.M2.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-3/06_Log.M2.Scaled.Coef.xlsx
@@ -422,52 +422,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.75 (0.57, 1.01)</t>
+          <t>0.92 (0.74, 1.15)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.416</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.61 (0.45, 0.82)</t>
+          <t>0.94 (0.85, 1.04)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.221</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.60 (0.43, 0.82)</t>
+          <t>0.98 (0.94, 1.02)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.324</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.55 (0.40, 0.77)</t>
+          <t>0.89 (0.81, 0.98)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.65 (0.48, 0.88)</t>
+          <t>0.94 (0.84, 1.06)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.307</t>
         </is>
       </c>
     </row>
@@ -479,166 +479,166 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.65 (0.48, 0.86)</t>
+          <t>0.62 (0.44, 0.83)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.88 (0.80, 0.95)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.95 (0.92, 0.99)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.84 (0.76, 0.91)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.85 (0.76, 0.95)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0.004</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.68 (0.52, 0.88)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.004</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.79 (0.62, 1.00)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.65 (0.50, 0.84)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.62 (0.47, 0.81)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.26 (0.10, 0.55)</t>
+          <t>0.40 (0.15, 0.83)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79 (0.64, 0.95)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.92 (0.86, 0.97)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.72 (0.57, 0.87)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>0.002</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.39 (0.21, 0.68)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.51 (0.32, 0.78)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.23 (0.12, 0.42)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.42 (0.22, 0.72)</t>
+          <t>0.76 (0.57, 0.96)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.036</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.39 (0.14, 0.86)</t>
+          <t>0.73 (0.37, 1.18)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.291</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.24 (0.09, 0.53)</t>
+          <t>0.80 (0.65, 0.95)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.34 (0.17, 0.61)</t>
+          <t>0.91 (0.86, 0.97)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.47 (0.24, 0.86)</t>
+          <t>0.76 (0.62, 0.91)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.23 (0.08, 0.55)</t>
+          <t>0.75 (0.57, 0.94)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.023</t>
         </is>
       </c>
     </row>
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.85 (0.60, 1.16)</t>
+          <t>1.03 (0.80, 1.26)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.333</t>
+          <t>0.817</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.79 (0.56, 1.09)</t>
+          <t>0.99 (0.90, 1.09)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.166</t>
+          <t>0.911</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.91 (0.67, 1.22)</t>
+          <t>0.99 (0.95, 1.03)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.524</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.79 (0.57, 1.09)</t>
+          <t>0.99 (0.90, 1.08)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.166</t>
+          <t>0.848</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.82 (0.58, 1.13)</t>
+          <t>0.99 (0.88, 1.11)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.248</t>
+          <t>0.886</t>
         </is>
       </c>
     </row>
